--- a/evaluator/statistics.xlsx
+++ b/evaluator/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\499\CSCI499FinalProject\evaluator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABFE471-7FE5-46FA-880F-42D31604A7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ABC797-A9C2-4024-8971-F9CC6EA17D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16297" yWindow="-20797" windowWidth="16395" windowHeight="28394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,12 +369,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -399,15 +400,60 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2">
+        <v>0.63569652053419701</v>
+      </c>
+      <c r="C2">
+        <v>0.740877356625396</v>
+      </c>
+      <c r="D2">
+        <v>0.93091181113977395</v>
+      </c>
+      <c r="E2">
+        <v>0.91409429374370499</v>
+      </c>
+      <c r="F2">
+        <v>0.81426223330453895</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3">
+        <v>0.630696520534197</v>
+      </c>
+      <c r="C3">
+        <v>0.55231438078035799</v>
+      </c>
+      <c r="D3">
+        <v>0.86561271097422499</v>
+      </c>
+      <c r="E3">
+        <v>0.88403479820270903</v>
+      </c>
+      <c r="F3">
+        <v>0.53299936039157803</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.63199586870504698</v>
+      </c>
+      <c r="C4">
+        <v>0.68552733330908899</v>
+      </c>
+      <c r="D4">
+        <v>0.93091181113977395</v>
+      </c>
+      <c r="E4">
+        <v>0.88403479820270903</v>
+      </c>
+      <c r="F4">
+        <v>0.41343092446617302</v>
       </c>
     </row>
   </sheetData>

--- a/evaluator/statistics.xlsx
+++ b/evaluator/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\499\CSCI499FinalProject\evaluator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ABC797-A9C2-4024-8971-F9CC6EA17D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6FD843-9004-4402-BC5D-6D3EA36E5D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16297" yWindow="-20797" windowWidth="16395" windowHeight="28394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,21 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>AllNodesDistanceKinBinaryTree</t>
-  </si>
-  <si>
-    <t>DesignaNumberContainerSystem</t>
-  </si>
-  <si>
-    <t>DistributeCandies</t>
-  </si>
-  <si>
-    <t>LongestCycleinaGraph</t>
-  </si>
-  <si>
-    <t>NumberofEmployeesWhoMettheTarget</t>
-  </si>
-  <si>
     <t>original</t>
   </si>
   <si>
@@ -49,6 +34,21 @@
   </si>
   <si>
     <t>few-shot</t>
+  </si>
+  <si>
+    <t>Group A</t>
+  </si>
+  <si>
+    <t>Group B</t>
+  </si>
+  <si>
+    <t>Group C</t>
+  </si>
+  <si>
+    <t>Group D</t>
+  </si>
+  <si>
+    <t>Group E</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,24 +381,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0.63569652053419701</v>
@@ -418,7 +418,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0.630696520534197</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0.63199586870504698</v>

--- a/evaluator/statistics.xlsx
+++ b/evaluator/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\499\CSCI499FinalProject\evaluator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6FD843-9004-4402-BC5D-6D3EA36E5D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC461BCE-38C7-4EDF-82EC-0D67578C280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16297" yWindow="-20797" windowWidth="16395" windowHeight="28394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>original</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Group E</t>
+  </si>
+  <si>
+    <t>ToT</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +459,26 @@
         <v>0.41343092446617302</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.63199586870504698</v>
+      </c>
+      <c r="C5">
+        <v>0.73068936203717805</v>
+      </c>
+      <c r="D5">
+        <v>0.86561271097422499</v>
+      </c>
+      <c r="E5">
+        <v>0.88403479820270903</v>
+      </c>
+      <c r="F5">
+        <v>0.74231615214236002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
